--- a/com.MavenSDET24/src/test/resources/commondata.xlsx
+++ b/com.MavenSDET24/src/test/resources/commondata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15840" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15840" windowHeight="6615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="newcontact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P20"/>
+  <oleSize ref="A1:F20"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
